--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.565699</v>
+        <v>102.4387563333333</v>
       </c>
       <c r="H2">
-        <v>322.697097</v>
+        <v>307.316269</v>
       </c>
       <c r="I2">
-        <v>0.02858134952685079</v>
+        <v>0.01835346024518914</v>
       </c>
       <c r="J2">
-        <v>0.02881178879290993</v>
+        <v>0.0184635933110779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>424.526819245592</v>
+        <v>297.7737232387767</v>
       </c>
       <c r="R2">
-        <v>3820.741373210328</v>
+        <v>2679.96350914899</v>
       </c>
       <c r="S2">
-        <v>0.0002310026940253909</v>
+        <v>0.0001013207496657356</v>
       </c>
       <c r="T2">
-        <v>0.0002396473410430478</v>
+        <v>0.0001038492347535966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.565699</v>
+        <v>102.4387563333333</v>
       </c>
       <c r="H3">
-        <v>322.697097</v>
+        <v>307.316269</v>
       </c>
       <c r="I3">
-        <v>0.02858134952685079</v>
+        <v>0.01835346024518914</v>
       </c>
       <c r="J3">
-        <v>0.02881178879290993</v>
+        <v>0.0184635933110779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>19986.00207033329</v>
+        <v>19033.40205282696</v>
       </c>
       <c r="R3">
-        <v>179874.0186329996</v>
+        <v>171300.6184754427</v>
       </c>
       <c r="S3">
-        <v>0.01087521473731242</v>
+        <v>0.00647632216740422</v>
       </c>
       <c r="T3">
-        <v>0.01128219004572572</v>
+        <v>0.00663794043492088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.565699</v>
+        <v>102.4387563333333</v>
       </c>
       <c r="H4">
-        <v>322.697097</v>
+        <v>307.316269</v>
       </c>
       <c r="I4">
-        <v>0.02858134952685079</v>
+        <v>0.01835346024518914</v>
       </c>
       <c r="J4">
-        <v>0.02881178879290993</v>
+        <v>0.0184635933110779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>12621.69719867261</v>
+        <v>14041.45536429832</v>
       </c>
       <c r="R4">
-        <v>113595.2747880535</v>
+        <v>126373.0982786849</v>
       </c>
       <c r="S4">
-        <v>0.006867990251469552</v>
+        <v>0.00477775798493762</v>
       </c>
       <c r="T4">
-        <v>0.007125006091458575</v>
+        <v>0.004896988151099815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>107.565699</v>
+        <v>102.4387563333333</v>
       </c>
       <c r="H5">
-        <v>322.697097</v>
+        <v>307.316269</v>
       </c>
       <c r="I5">
-        <v>0.02858134952685079</v>
+        <v>0.01835346024518914</v>
       </c>
       <c r="J5">
-        <v>0.02881178879290993</v>
+        <v>0.0184635933110779</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>4459.520491853225</v>
+        <v>2992.516396153373</v>
       </c>
       <c r="R5">
-        <v>26757.12295111935</v>
+        <v>17955.09837692024</v>
       </c>
       <c r="S5">
-        <v>0.002426610524890243</v>
+        <v>0.001018236267953482</v>
       </c>
       <c r="T5">
-        <v>0.001678279878915184</v>
+        <v>0.0006957644087328687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>107.565699</v>
+        <v>102.4387563333333</v>
       </c>
       <c r="H6">
-        <v>322.697097</v>
+        <v>307.316269</v>
       </c>
       <c r="I6">
-        <v>0.02858134952685079</v>
+        <v>0.01835346024518914</v>
       </c>
       <c r="J6">
-        <v>0.02881178879290993</v>
+        <v>0.0184635933110779</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>15033.82874087748</v>
+        <v>17574.2302272166</v>
       </c>
       <c r="R6">
-        <v>135304.4586678973</v>
+        <v>158168.0720449494</v>
       </c>
       <c r="S6">
-        <v>0.008180531319153184</v>
+        <v>0.005979823075228079</v>
       </c>
       <c r="T6">
-        <v>0.008486665435767399</v>
+        <v>0.006129051081570739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>528.036949</v>
       </c>
       <c r="I7">
-        <v>0.04676834326297298</v>
+        <v>0.03153528182220144</v>
       </c>
       <c r="J7">
-        <v>0.04714541652489843</v>
+        <v>0.03172451465483067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>694.6633498940863</v>
+        <v>511.6407563550567</v>
       </c>
       <c r="R7">
-        <v>6251.970149046776</v>
+        <v>4604.76680719551</v>
       </c>
       <c r="S7">
-        <v>0.000377995212531918</v>
+        <v>0.0001740913349559369</v>
       </c>
       <c r="T7">
-        <v>0.000392140654430286</v>
+        <v>0.0001784358285153916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>528.036949</v>
       </c>
       <c r="I8">
-        <v>0.04676834326297298</v>
+        <v>0.03153528182220144</v>
       </c>
       <c r="J8">
-        <v>0.04714541652489843</v>
+        <v>0.03172451465483067</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>32703.57141120013</v>
@@ -948,10 +948,10 @@
         <v>294332.1427008011</v>
       </c>
       <c r="S8">
-        <v>0.01779537300767936</v>
+        <v>0.01112774604854126</v>
       </c>
       <c r="T8">
-        <v>0.01846131640218375</v>
+        <v>0.01140544178251544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>528.036949</v>
       </c>
       <c r="I9">
-        <v>0.04676834326297298</v>
+        <v>0.03153528182220144</v>
       </c>
       <c r="J9">
-        <v>0.04714541652489843</v>
+        <v>0.03172451465483067</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>20653.1838741299</v>
+        <v>24126.30894618784</v>
       </c>
       <c r="R9">
-        <v>185878.6548671691</v>
+        <v>217136.7805156906</v>
       </c>
       <c r="S9">
-        <v>0.01123825609793981</v>
+        <v>0.008209239158200406</v>
       </c>
       <c r="T9">
-        <v>0.01165881724104943</v>
+        <v>0.008414102810144092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>528.036949</v>
       </c>
       <c r="I10">
-        <v>0.04676834326297298</v>
+        <v>0.03153528182220144</v>
       </c>
       <c r="J10">
-        <v>0.04714541652489843</v>
+        <v>0.03172451465483067</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>7297.21964161691</v>
+        <v>5141.801417800313</v>
       </c>
       <c r="R10">
-        <v>43783.31784970145</v>
+        <v>30850.80850680188</v>
       </c>
       <c r="S10">
-        <v>0.003970720622796098</v>
+        <v>0.001749553884800363</v>
       </c>
       <c r="T10">
-        <v>0.002746209355674691</v>
+        <v>0.001195476298100225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>528.036949</v>
       </c>
       <c r="I11">
-        <v>0.04676834326297298</v>
+        <v>0.03153528182220144</v>
       </c>
       <c r="J11">
-        <v>0.04714541652489843</v>
+        <v>0.03172451465483067</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>24600.21219255486</v>
+        <v>30196.39324790524</v>
       </c>
       <c r="R11">
-        <v>221401.9097329937</v>
+        <v>271767.5392311472</v>
       </c>
       <c r="S11">
-        <v>0.01338599832202579</v>
+        <v>0.01027465139570347</v>
       </c>
       <c r="T11">
-        <v>0.01388693287156027</v>
+        <v>0.01053105793555552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1855.177368</v>
+        <v>2105.314697333333</v>
       </c>
       <c r="H12">
-        <v>5565.532104</v>
+        <v>6315.944092</v>
       </c>
       <c r="I12">
-        <v>0.4929403451290834</v>
+        <v>0.3771991283785865</v>
       </c>
       <c r="J12">
-        <v>0.4969147134924725</v>
+        <v>0.3794625760284536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>7321.781520458943</v>
+        <v>6119.826308456175</v>
       </c>
       <c r="R12">
-        <v>65896.0336841305</v>
+        <v>55078.43677610558</v>
       </c>
       <c r="S12">
-        <v>0.003984085762348218</v>
+        <v>0.002082337496581783</v>
       </c>
       <c r="T12">
-        <v>0.004133179327031007</v>
+        <v>0.002134302758636901</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1855.177368</v>
+        <v>2105.314697333333</v>
       </c>
       <c r="H13">
-        <v>5565.532104</v>
+        <v>6315.944092</v>
       </c>
       <c r="I13">
-        <v>0.4929403451290834</v>
+        <v>0.3771991283785865</v>
       </c>
       <c r="J13">
-        <v>0.4969147134924725</v>
+        <v>0.3794625760284536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>344697.0461994902</v>
+        <v>391173.2484498344</v>
       </c>
       <c r="R13">
-        <v>3102273.415795412</v>
+        <v>3520559.236048509</v>
       </c>
       <c r="S13">
-        <v>0.187563995217491</v>
+        <v>0.1331009544799118</v>
       </c>
       <c r="T13">
-        <v>0.1945830671755803</v>
+        <v>0.1364225226650349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1855.177368</v>
+        <v>2105.314697333333</v>
       </c>
       <c r="H14">
-        <v>5565.532104</v>
+        <v>6315.944092</v>
       </c>
       <c r="I14">
-        <v>0.4929403451290834</v>
+        <v>0.3771991283785865</v>
       </c>
       <c r="J14">
-        <v>0.4969147134924725</v>
+        <v>0.3794625760284536</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>217685.4443973485</v>
+        <v>288579.0828445261</v>
       </c>
       <c r="R14">
-        <v>1959168.999576136</v>
+        <v>2597211.745600735</v>
       </c>
       <c r="S14">
-        <v>0.1184517015798033</v>
+        <v>0.09819217321674756</v>
       </c>
       <c r="T14">
-        <v>0.1228844340772246</v>
+        <v>0.1006425838832922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1855.177368</v>
+        <v>2105.314697333333</v>
       </c>
       <c r="H15">
-        <v>5565.532104</v>
+        <v>6315.944092</v>
       </c>
       <c r="I15">
-        <v>0.4929403451290834</v>
+        <v>0.3771991283785865</v>
       </c>
       <c r="J15">
-        <v>0.4969147134924725</v>
+        <v>0.3794625760284536</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>76913.00819435323</v>
+        <v>61502.00350277591</v>
       </c>
       <c r="R15">
-        <v>461478.0491661194</v>
+        <v>369012.0210166555</v>
       </c>
       <c r="S15">
-        <v>0.0418515657740204</v>
+        <v>0.02092672594837772</v>
       </c>
       <c r="T15">
-        <v>0.02894516446672493</v>
+        <v>0.0142993051459968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1855.177368</v>
+        <v>2105.314697333333</v>
       </c>
       <c r="H16">
-        <v>5565.532104</v>
+        <v>6315.944092</v>
       </c>
       <c r="I16">
-        <v>0.4929403451290834</v>
+        <v>0.3771991283785865</v>
       </c>
       <c r="J16">
-        <v>0.4969147134924725</v>
+        <v>0.3794625760284536</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>259287.2922665044</v>
+        <v>361184.443427681</v>
       </c>
       <c r="R16">
-        <v>2333585.630398539</v>
+        <v>3250659.990849129</v>
       </c>
       <c r="S16">
-        <v>0.1410889967954206</v>
+        <v>0.1228969372369676</v>
       </c>
       <c r="T16">
-        <v>0.1463688684459117</v>
+        <v>0.1259638615754928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.30225350000001</v>
+        <v>99.8778305</v>
       </c>
       <c r="H17">
-        <v>180.604507</v>
+        <v>199.755661</v>
       </c>
       <c r="I17">
-        <v>0.02399426856646732</v>
+        <v>0.01789463145660039</v>
       </c>
       <c r="J17">
-        <v>0.0161251494330351</v>
+        <v>0.01200134082810157</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>356.3936162313614</v>
+        <v>290.3295053702131</v>
       </c>
       <c r="R17">
-        <v>2138.361697388168</v>
+        <v>1741.977032221279</v>
       </c>
       <c r="S17">
-        <v>0.0001939285853110459</v>
+        <v>9.878777352897586E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001341238898190042</v>
+        <v>6.750203170190405E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.30225350000001</v>
+        <v>99.8778305</v>
       </c>
       <c r="H18">
-        <v>180.604507</v>
+        <v>199.755661</v>
       </c>
       <c r="I18">
-        <v>0.02399426856646732</v>
+        <v>0.01789463145660039</v>
       </c>
       <c r="J18">
-        <v>0.0161251494330351</v>
+        <v>0.01200134082810157</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>16778.40651978436</v>
+        <v>18557.5750049595</v>
       </c>
       <c r="R18">
-        <v>100670.4391187061</v>
+        <v>111345.450029757</v>
       </c>
       <c r="S18">
-        <v>0.009129828627578782</v>
+        <v>0.006314416836481164</v>
       </c>
       <c r="T18">
-        <v>0.006314325074602708</v>
+        <v>0.004314663143513069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.30225350000001</v>
+        <v>99.8778305</v>
       </c>
       <c r="H19">
-        <v>180.604507</v>
+        <v>199.755661</v>
       </c>
       <c r="I19">
-        <v>0.02399426856646732</v>
+        <v>0.01789463145660039</v>
       </c>
       <c r="J19">
-        <v>0.0161251494330351</v>
+        <v>0.01200134082810157</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>10596.01444169274</v>
+        <v>13690.42488455471</v>
       </c>
       <c r="R19">
-        <v>63576.08665015642</v>
+        <v>82142.54930732827</v>
       </c>
       <c r="S19">
-        <v>0.005765732036229618</v>
+        <v>0.004658316044338231</v>
       </c>
       <c r="T19">
-        <v>0.003987665908627226</v>
+        <v>0.003183043670988051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90.30225350000001</v>
+        <v>99.8778305</v>
       </c>
       <c r="H20">
-        <v>180.604507</v>
+        <v>199.755661</v>
       </c>
       <c r="I20">
-        <v>0.02399426856646732</v>
+        <v>0.01789463145660039</v>
       </c>
       <c r="J20">
-        <v>0.0161251494330351</v>
+        <v>0.01200134082810157</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>3743.802659096509</v>
+        <v>2917.704744588163</v>
       </c>
       <c r="R20">
-        <v>14975.21063638604</v>
+        <v>11670.81897835265</v>
       </c>
       <c r="S20">
-        <v>0.002037158692794873</v>
+        <v>0.0009927807894180556</v>
       </c>
       <c r="T20">
-        <v>0.000939286138478948</v>
+        <v>0.0004522470607200701</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>90.30225350000001</v>
+        <v>99.8778305</v>
       </c>
       <c r="H21">
-        <v>180.604507</v>
+        <v>199.755661</v>
       </c>
       <c r="I21">
-        <v>0.02399426856646732</v>
+        <v>0.01789463145660039</v>
       </c>
       <c r="J21">
-        <v>0.0161251494330351</v>
+        <v>0.01200134082810157</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>12621.01791421728</v>
+        <v>17134.88186141472</v>
       </c>
       <c r="R21">
-        <v>75726.10748530371</v>
+        <v>102809.2911684883</v>
       </c>
       <c r="S21">
-        <v>0.006867620624553002</v>
+        <v>0.005830330012833967</v>
       </c>
       <c r="T21">
-        <v>0.004749748421507218</v>
+        <v>0.003983884921178476</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1534.435017666667</v>
+        <v>3097.797444666667</v>
       </c>
       <c r="H22">
-        <v>4603.305053</v>
+        <v>9293.392334</v>
       </c>
       <c r="I22">
-        <v>0.4077156935146256</v>
+        <v>0.5550174980974226</v>
       </c>
       <c r="J22">
-        <v>0.4110029317566841</v>
+        <v>0.5583479751775362</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>6055.915811871252</v>
+        <v>9004.821143438669</v>
       </c>
       <c r="R22">
-        <v>54503.24230684127</v>
+        <v>81043.39029094801</v>
       </c>
       <c r="S22">
-        <v>0.003295275596060584</v>
+        <v>0.003063988383311658</v>
       </c>
       <c r="T22">
-        <v>0.003418592315261753</v>
+        <v>0.003140450993015412</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1534.435017666667</v>
+        <v>3097.797444666667</v>
       </c>
       <c r="H23">
-        <v>4603.305053</v>
+        <v>9293.392334</v>
       </c>
       <c r="I23">
-        <v>0.4077156935146256</v>
+        <v>0.5550174980974226</v>
       </c>
       <c r="J23">
-        <v>0.4110029317566841</v>
+        <v>0.5583479751775362</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>285102.2372836335</v>
+        <v>575579.2666078539</v>
       </c>
       <c r="R23">
-        <v>2565920.135552702</v>
+        <v>5180213.399470686</v>
       </c>
       <c r="S23">
-        <v>0.1551359817554551</v>
+        <v>0.1958471088397492</v>
       </c>
       <c r="T23">
-        <v>0.1609415235811543</v>
+        <v>0.2007345232719923</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1534.435017666667</v>
+        <v>3097.797444666667</v>
       </c>
       <c r="H24">
-        <v>4603.305053</v>
+        <v>9293.392334</v>
       </c>
       <c r="I24">
-        <v>0.4077156935146256</v>
+        <v>0.5550174980974226</v>
       </c>
       <c r="J24">
-        <v>0.4110029317566841</v>
+        <v>0.5583479751775362</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>180049.7216499148</v>
+        <v>424620.3888436937</v>
       </c>
       <c r="R24">
-        <v>1620447.494849234</v>
+        <v>3821583.499593243</v>
       </c>
       <c r="S24">
-        <v>0.09797253995298423</v>
+        <v>0.1444817079662208</v>
       </c>
       <c r="T24">
-        <v>0.101638895572299</v>
+        <v>0.1480872857503026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1534.435017666667</v>
+        <v>3097.797444666667</v>
       </c>
       <c r="H25">
-        <v>4603.305053</v>
+        <v>9293.392334</v>
       </c>
       <c r="I25">
-        <v>0.4077156935146256</v>
+        <v>0.5550174980974226</v>
       </c>
       <c r="J25">
-        <v>0.4110029317566841</v>
+        <v>0.5583479751775362</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>63615.4877281248</v>
+        <v>90495.14048142066</v>
       </c>
       <c r="R25">
-        <v>381692.9263687488</v>
+        <v>542970.8428885239</v>
       </c>
       <c r="S25">
-        <v>0.03461583198218309</v>
+        <v>0.03079195630479187</v>
       </c>
       <c r="T25">
-        <v>0.0239408235115251</v>
+        <v>0.02104025160603549</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1534.435017666667</v>
+        <v>3097.797444666667</v>
       </c>
       <c r="H26">
-        <v>4603.305053</v>
+        <v>9293.392334</v>
       </c>
       <c r="I26">
-        <v>0.4077156935146256</v>
+        <v>0.5550174980974226</v>
       </c>
       <c r="J26">
-        <v>0.4110029317566841</v>
+        <v>0.5583479751775362</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>214459.009554765</v>
+        <v>531453.2061742746</v>
       </c>
       <c r="R26">
-        <v>1930131.085992885</v>
+        <v>4783078.855568471</v>
       </c>
       <c r="S26">
-        <v>0.1166960642279426</v>
+        <v>0.180832736603349</v>
       </c>
       <c r="T26">
-        <v>0.121063096776444</v>
+        <v>0.1853454635561904</v>
       </c>
     </row>
   </sheetData>
